--- a/biology/Zoologie/Geai_bleu/Geai_bleu.xlsx
+++ b/biology/Zoologie/Geai_bleu/Geai_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanocitta cristata
 Le Geai bleu (Cyanocitta cristata) est une espèce de passereaux d'Amérique du Nord appartenant à la famille des corvidés. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Geai bleu présente les caractéristiques suivantes :
 Longueur : 24 à 30 cm ;
@@ -552,7 +566,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend à l'est de l'Amérique du Nord, du sud du Canada et au golfe du Mexique.
 Ses milieux de vie sont les forêts de feuillus et les bois épars.
@@ -584,7 +600,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait preuve d'un comportement singulier en prenant des bains de fourmis. Il se jette par surprise toutes ailes déployées dans une fourmilière obligeant ainsi les insectes affolés à sécréter de l'acide formique pour se défendre. Ce comportement singulier, appelé « formicage », peut s'expliquer par le fait que l'oiseau utilise l'acide formique pour se débarrasser de ses tiques et autres parasites du plumage constituant ainsi pour les fourmis un stock de nourriture en récompense.[réf. nécessaire] Il mange aussi du pain.
 </t>
@@ -615,7 +633,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par quatre sous-espèces :
 Cyanocitta cristata cristata (Linnaeus, 1758) y compris Cyanocitta cristata burleighi Bond, 1962 ;
@@ -649,7 +669,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le geai bleu est l'emblème aviaire  de la province de l'Île-du-Prince-Édouard. Il est également l'emblème de l'équipe de baseball de Toronto, les Toronto Blue Jays, qui évolue en MLB.
 Mordecai, personnage de la série d'animation américaine Regular Show (2010-2017), est un geai bleu.
@@ -681,7 +703,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Madge S. &amp; Burn H. (1996) Corbeaux et Geais. Guide des Corbeaux, Geais et Pies du monde entier. Vigot, Paris, 184 p.</t>
         </is>
